--- a/biology/Botanique/Centaurium_maritimum/Centaurium_maritimum.xlsx
+++ b/biology/Botanique/Centaurium_maritimum/Centaurium_maritimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite centaurée maritime (Centaurium maritimum) est une plante herbacée thérophyte à fleurs jaunes de la famille des Gentianaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Erythraea maritima Pers. Fournier
 Gentiana maritima L.
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante annuelle, à floraison estivale, floraison de mai à juin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante annuelle, à floraison estivale, floraison de mai à juin.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : littoral atlantique et méditerranéen, Corse.
 </t>
@@ -605,7 +623,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée en région Aquitaine (Article 1) et dans les Pays de la Loire (Article 1).
 </t>
